--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/食品、饮料制造及烟草制品业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/食品、饮料制造及烟草制品业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07298189396452399</v>
+        <v>0.07084769746021401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.035827517139103</v>
+        <v>0.037354904241678</v>
       </c>
       <c r="D2" t="n">
-        <v>0.607662651744511</v>
+        <v>0.646819518175795</v>
       </c>
       <c r="E2" t="n">
-        <v>0.195075221535264</v>
+        <v>0.201424948039783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002020653565971</v>
+        <v>0.00250005485269</v>
       </c>
       <c r="G2" t="n">
-        <v>0.038898642082012</v>
+        <v>0.047832961486883</v>
       </c>
       <c r="H2" t="n">
-        <v>0.074523387476516</v>
+        <v>0.079459980543325</v>
       </c>
       <c r="I2" t="n">
-        <v>0.106877846112278</v>
+        <v>0.106414118461044</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04995939075106</v>
+        <v>0.048255971075047</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07743544746315</v>
+        <v>0.077399181515523</v>
       </c>
       <c r="L2" t="n">
-        <v>0.019873749734872</v>
+        <v>0.021040513373152</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08478637069235501</v>
+        <v>0.09685358233751699</v>
       </c>
       <c r="N2" t="n">
-        <v>0.074252900265194</v>
+        <v>0.08659101392943799</v>
       </c>
       <c r="O2" t="n">
-        <v>0.069711935326267</v>
+        <v>0.067683538138173</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03823147281358</v>
+        <v>0.044272590087674</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.019222316758095</v>
+        <v>0.021983999972869</v>
       </c>
       <c r="R2" t="n">
-        <v>0.324955164611129</v>
+        <v>0.364821404934923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07084769746021401</v>
+        <v>0.045771058002991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.037354904241678</v>
+        <v>0.029042226213</v>
       </c>
       <c r="D3" t="n">
-        <v>0.646819518175795</v>
+        <v>0.605397321344843</v>
       </c>
       <c r="E3" t="n">
-        <v>0.201424948039783</v>
+        <v>0.176181523208116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00250005485269</v>
+        <v>0.005043179361615</v>
       </c>
       <c r="G3" t="n">
-        <v>0.047832961486883</v>
+        <v>0.05255646557373</v>
       </c>
       <c r="H3" t="n">
-        <v>0.079459980543325</v>
+        <v>0.110727456893235</v>
       </c>
       <c r="I3" t="n">
-        <v>0.106414118461044</v>
+        <v>0.068703060894781</v>
       </c>
       <c r="J3" t="n">
-        <v>0.048255971075047</v>
+        <v>0.046467811053014</v>
       </c>
       <c r="K3" t="n">
-        <v>0.077399181515523</v>
+        <v>0.057156572145616</v>
       </c>
       <c r="L3" t="n">
-        <v>0.021040513373152</v>
+        <v>0.017441771446039</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09685358233751699</v>
+        <v>0.09096282799918499</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08659101392943799</v>
+        <v>0.068455992983285</v>
       </c>
       <c r="O3" t="n">
-        <v>0.067683538138173</v>
+        <v>0.046744845362197</v>
       </c>
       <c r="P3" t="n">
-        <v>0.044272590087674</v>
+        <v>0.055160784798097</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.021983999972869</v>
+        <v>0.014249615986597</v>
       </c>
       <c r="R3" t="n">
-        <v>0.364821404934923</v>
+        <v>0.398755459325318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.045771058002991</v>
+        <v>0.044288930399499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.029042226213</v>
+        <v>0.030454254241979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.605397321344843</v>
+        <v>0.6476165158568979</v>
       </c>
       <c r="E4" t="n">
-        <v>0.176181523208116</v>
+        <v>0.176465412528929</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005043179361615</v>
+        <v>0.004787568187575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05255646557373</v>
+        <v>0.065965382077439</v>
       </c>
       <c r="H4" t="n">
-        <v>0.110727456893235</v>
+        <v>0.112322337443181</v>
       </c>
       <c r="I4" t="n">
-        <v>0.068703060894781</v>
+        <v>0.07321356772545</v>
       </c>
       <c r="J4" t="n">
-        <v>0.046467811053014</v>
+        <v>0.0326501244005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.057156572145616</v>
+        <v>0.048304635338939</v>
       </c>
       <c r="L4" t="n">
-        <v>0.017441771446039</v>
+        <v>0.019513675510039</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09096282799918499</v>
+        <v>0.082827380925757</v>
       </c>
       <c r="N4" t="n">
-        <v>0.068455992983285</v>
+        <v>0.040689357776972</v>
       </c>
       <c r="O4" t="n">
-        <v>0.046744845362197</v>
+        <v>0.03992590708427</v>
       </c>
       <c r="P4" t="n">
-        <v>0.055160784798097</v>
+        <v>0.055518396318784</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.014249615986597</v>
+        <v>0.013814302005577</v>
       </c>
       <c r="R4" t="n">
-        <v>0.398755459325318</v>
+        <v>0.468056594842204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.044288930399499</v>
+        <v>0.004970178009721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.030454254241979</v>
+        <v>0.098429170155954</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6476165158568979</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.176465412528929</v>
-      </c>
+        <v>0.572182858328356</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.004787568187575</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.065965382077439</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.112322337443181</v>
-      </c>
+        <v>0.002049959503346</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.07321356772545</v>
+        <v>0.07302687700558</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0326501244005</v>
+        <v>0.176174091084714</v>
       </c>
       <c r="K5" t="n">
-        <v>0.048304635338939</v>
+        <v>0.049086491708793</v>
       </c>
       <c r="L5" t="n">
-        <v>0.019513675510039</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.082827380925757</v>
-      </c>
+        <v>0.018868854011872</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.040689357776972</v>
+        <v>0.050545862328851</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03992590708427</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.055518396318784</v>
-      </c>
+        <v>0.035567632232734</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.013814302005577</v>
+        <v>0.012638231704551</v>
       </c>
       <c r="R5" t="n">
-        <v>0.468056594842204</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.004970178009721</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.098429170155954</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.572182858328356</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.002049959503346</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.07302687700558</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.176174091084714</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.049086491708793</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.018868854011872</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.050545862328851</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.035567632232734</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.012638231704551</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.349518211125763</v>
       </c>
     </row>
